--- a/data/extracted_data/raw_round2/data/Holmes_etal_1999_Fig12.xlsx
+++ b/data/extracted_data/raw_round2/data/Holmes_etal_1999_Fig12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{1D82A673-B1B8-1949-960A-BDC8F26360B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADE1E2C-A29E-0349-9436-489EF81132FA}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{1D82A673-B1B8-1949-960A-BDC8F26360B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E561DE-9F24-304F-8BAD-C15E585B59C7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{ABB75798-BF7C-E140-98A8-DD304422654D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{ABB75798-BF7C-E140-98A8-DD304422654D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,13 +426,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B60EBD8-27D6-6344-BEF9-4A9C0DC80DB4}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>

--- a/data/extracted_data/raw_round2/data/Holmes_etal_1999_Fig12.xlsx
+++ b/data/extracted_data/raw_round2/data/Holmes_etal_1999_Fig12.xlsx
@@ -1,50 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{1D82A673-B1B8-1949-960A-BDC8F26360B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E561DE-9F24-304F-8BAD-C15E585B59C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4AB9B4-E611-FD4A-9D40-A9115292FE90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{ABB75798-BF7C-E140-98A8-DD304422654D}"/>
+    <workbookView xWindow="2300" yWindow="500" windowWidth="31340" windowHeight="19680" xr2:uid="{ABB75798-BF7C-E140-98A8-DD304422654D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="13">
   <si>
     <t>treatment</t>
   </si>
   <si>
     <t>Okadaic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>DTX-2</t>
@@ -66,6 +56,18 @@
   </si>
   <si>
     <t>Depuration</t>
+  </si>
+  <si>
+    <t>Sum of toxicity</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -107,9 +109,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,10 +137,412 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chris Free" refreshedDate="45972.473957870374" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="36" xr:uid="{0D4AC0EE-8918-E54D-A49E-8160436E62A5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D37" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="treatment" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="phase" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Depuration"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="day" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="32" count="10">
+        <n v="0"/>
+        <n v="4"/>
+        <n v="7"/>
+        <n v="11"/>
+        <n v="15"/>
+        <n v="19"/>
+        <n v="25"/>
+        <n v="32"/>
+        <n v="22"/>
+        <n v="28"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="toxicity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.13888888888888501" maxValue="23.720813708788398" count="24">
+        <n v="23.720813708788398"/>
+        <n v="12.6991682533319"/>
+        <n v="4.22988275378294"/>
+        <n v="2.2356949594147602"/>
+        <n v="0.47299328590039003"/>
+        <n v="0.56268163142599104"/>
+        <n v="0.29111133380097998"/>
+        <n v="0.36025653873133401"/>
+        <n v="2.30884858202224"/>
+        <n v="0.77713197715201299"/>
+        <n v="1.3363062431105199"/>
+        <n v="1.3097504759995899"/>
+        <n v="9.1666666666666607"/>
+        <n v="2.7777777777777701"/>
+        <n v="2.9861111111111098"/>
+        <n v="2.01388888888888"/>
+        <n v="0.41666666666666402"/>
+        <n v="0.20833333333333501"/>
+        <n v="0.625"/>
+        <n v="1.875"/>
+        <n v="1.1111111111111001"/>
+        <n v="3.75"/>
+        <n v="0.97222222222222099"/>
+        <n v="0.13888888888888501"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="36">
+  <r>
+    <s v="Okadaic acid"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Okadaic acid"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Okadaic acid"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Okadaic acid"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Okadaic acid"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Okadaic acid"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Okadaic acid"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Okadaic acid"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="DTX-2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="DTX-2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="DTX-2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="DTX-2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="DTX-2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="DTX-2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="DTX-2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="DTX-2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="DTX-1a"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <s v="DTX-1b"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="23"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DC648F2-15A6-1549-90FA-72A8FCA81A10}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="25">
+        <item x="23"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of toxicity" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +580,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +686,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +828,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B60EBD8-27D6-6344-BEF9-4A9C0DC80DB4}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,29 +849,26 @@
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -468,12 +877,12 @@
         <v>23.720813708788398</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -482,12 +891,12 @@
         <v>12.6991682533319</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>7</v>
@@ -496,12 +905,12 @@
         <v>4.22988275378294</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
@@ -510,12 +919,12 @@
         <v>2.2356949594147602</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
@@ -524,12 +933,12 @@
         <v>0.47299328590039003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>19</v>
@@ -538,12 +947,12 @@
         <v>0.56268163142599104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>25</v>
@@ -552,12 +961,12 @@
         <v>0.29111133380097998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>32</v>
@@ -566,12 +975,12 @@
         <v>0.36025653873133401</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -580,12 +989,12 @@
         <v>2.30884858202224</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -594,12 +1003,12 @@
         <v>0.77713197715201299</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <v>7</v>
@@ -608,12 +1017,12 @@
         <v>1.3363062431105199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -622,12 +1031,12 @@
         <v>1.3097504759995899</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>15</v>
@@ -636,12 +1045,12 @@
         <v>0.47299328590039003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>19</v>
@@ -650,12 +1059,12 @@
         <v>0.56268163142599104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
         <v>25</v>
@@ -666,10 +1075,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>32</v>
@@ -680,10 +1089,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -694,10 +1103,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -708,10 +1117,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
@@ -722,10 +1131,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1">
         <v>11</v>
@@ -736,10 +1145,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
         <v>15</v>
@@ -750,10 +1159,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
         <v>19</v>
@@ -764,10 +1173,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
@@ -778,10 +1187,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1">
         <v>25</v>
@@ -792,10 +1201,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
         <v>28</v>
@@ -806,10 +1215,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
         <v>32</v>
@@ -820,10 +1229,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -834,10 +1243,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -848,10 +1257,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1">
         <v>7</v>
@@ -862,10 +1271,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>11</v>
@@ -876,10 +1285,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1">
         <v>15</v>
@@ -890,10 +1299,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1">
         <v>19</v>
@@ -904,10 +1313,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
         <v>22</v>
@@ -918,10 +1327,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1">
         <v>25</v>
@@ -932,10 +1341,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1">
         <v>28</v>
@@ -946,20 +1355,283 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1">
         <v>32</v>
       </c>
       <c r="D37">
         <v>0.13888888888888501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>37.071328957477299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>18.267966897150561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8.9689667746712338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6.6704454354143294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.7793199051341082</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5.0836965961853169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>22</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.83333333333333504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.762778223157516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1">
+        <v>28</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.76388888888888506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.4844019663515531</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D216DF-615A-F544-B894-D7E38879C69E}">
+  <dimension ref="A3:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>82.686126977764133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>37.071328957477299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>18.267966897150561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.9689667746712338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6.6704454354143294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.7793199051341082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.0836965961853169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.83333333333333504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.762778223157516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.76388888888888506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.4844019663515531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>82.686126977764133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>